--- a/Files/Imports/ServiceTemplate.xlsx
+++ b/Files/Imports/ServiceTemplate.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="ServiceResultIndice" sheetId="2" r:id="rId1"/>
+    <sheet name="ServiceResultIndice" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -209,9 +209,6 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -225,19 +222,20 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,369 +516,344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29" style="4" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="4" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>90000</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>100000</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>100</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>100000</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="9">
         <v>45455</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>90000</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>100000</v>
       </c>
-      <c r="P4" s="12">
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9">
         <v>45455</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>120000</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>120000</v>
       </c>
-      <c r="P5" s="12">
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
         <v>45455</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>200000</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>200000</v>
       </c>
-      <c r="P6" s="12">
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
         <v>45455</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="4">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>